--- a/Ikegami-2shift-DATA1.xlsx
+++ b/Ikegami-2shift-DATA1.xlsx
@@ -18,14 +18,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="YMdKo40iO7uYNq1v0HAik0aJ4PMz7wVXRL1r7aevagw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="27mmiTsuzgvXWmQhKphPkFmiXc+XafvYYNqqbtuki88="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="33">
   <si>
     <t>member</t>
   </si>
@@ -125,12 +125,6 @@
   <si>
     <t>number_of_workers_upper</t>
   </si>
-  <si>
-    <t>request_shift</t>
-  </si>
-  <si>
-    <t>past_shift</t>
-  </si>
 </sst>
 </file>
 
@@ -193,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -220,17 +214,20 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5692,8 +5689,8 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -34763,8 +34760,8 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -36575,57 +36572,57 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>2.0</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <v>45185.0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>2.0</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13">
         <v>45199.0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>8.0</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <v>45194.0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>23.0</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="13">
         <v>45193.0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
